--- a/thresholds/AL/international-project/international-project-thresholds.xlsx
+++ b/thresholds/AL/international-project/international-project-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,356 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>A 1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>March 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>June 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>A 01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
